--- a/python/project/AUTOTest/data/PageElement/login.xlsx
+++ b/python/project/AUTOTest/data/PageElement/login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="15480" windowHeight="8715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>名称</t>
   </si>
@@ -52,10 +52,10 @@
     <t>用户名</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>userName</t>
+    <t>class</t>
+  </si>
+  <si>
+    <t>loginframe-label-ipt userName</t>
   </si>
   <si>
     <t>input_userpwd</t>
@@ -64,7 +64,7 @@
     <t>密码</t>
   </si>
   <si>
-    <t>userPW</t>
+    <t>loginframe-label-ipt userPwd</t>
   </si>
   <si>
     <t>login_btn</t>
@@ -73,7 +73,7 @@
     <t>登陆</t>
   </si>
   <si>
-    <t>login</t>
+    <t>loginframe-btn userLogin</t>
   </si>
   <si>
     <t>logout</t>
@@ -82,10 +82,7 @@
     <t>登出</t>
   </si>
   <si>
-    <t>css_selector</t>
-  </si>
-  <si>
-    <t>span.text-danger</t>
+    <t>last</t>
   </si>
 </sst>
 </file>
@@ -98,13 +95,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -571,138 +574,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1022,13 +1028,14 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1058,7 +1065,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1072,7 +1079,7 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1086,7 +1093,7 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1098,14 +1105,14 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="11:11">
-      <c r="K12" s="1"/>
+      <c r="K12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
